--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm2-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm2-Ramp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Adm2</t>
+  </si>
+  <si>
+    <t>Ramp2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Adm2</t>
-  </si>
-  <si>
-    <t>Ramp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H2">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.41757066666666</v>
+        <v>82.374849</v>
       </c>
       <c r="N2">
-        <v>208.252712</v>
+        <v>247.124547</v>
       </c>
       <c r="O2">
-        <v>0.6629158479828877</v>
+        <v>0.6248537741508955</v>
       </c>
       <c r="P2">
-        <v>0.6629158479828877</v>
+        <v>0.6248537741508954</v>
       </c>
       <c r="Q2">
-        <v>2.175107020079111</v>
+        <v>5.961138322734</v>
       </c>
       <c r="R2">
-        <v>19.575963180712</v>
+        <v>53.65024490460601</v>
       </c>
       <c r="S2">
-        <v>0.6629158479828877</v>
+        <v>0.6248537741508955</v>
       </c>
       <c r="T2">
-        <v>0.6629158479828877</v>
+        <v>0.6248537741508954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H3">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>96.46939900000001</v>
       </c>
       <c r="O3">
-        <v>0.3070840846600094</v>
+        <v>0.2439226243891451</v>
       </c>
       <c r="P3">
-        <v>0.3070840846600094</v>
+        <v>0.2439226243891451</v>
       </c>
       <c r="Q3">
-        <v>1.007579997266556</v>
+        <v>2.327034842678</v>
       </c>
       <c r="R3">
-        <v>9.068219975399002</v>
+        <v>20.943313584102</v>
       </c>
       <c r="S3">
-        <v>0.3070840846600094</v>
+        <v>0.2439226243891451</v>
       </c>
       <c r="T3">
-        <v>0.3070840846600094</v>
+        <v>0.2439226243891451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H4">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.141472333333333</v>
+        <v>17.22395566666667</v>
       </c>
       <c r="N4">
-        <v>9.424417</v>
+        <v>51.671867</v>
       </c>
       <c r="O4">
-        <v>0.03000006735710286</v>
+        <v>0.130652181275918</v>
       </c>
       <c r="P4">
-        <v>0.03000006735710286</v>
+        <v>0.1306521812759179</v>
       </c>
       <c r="Q4">
-        <v>0.09843384693522222</v>
+        <v>1.246428775774</v>
       </c>
       <c r="R4">
-        <v>0.885904622417</v>
+        <v>11.217858981966</v>
       </c>
       <c r="S4">
-        <v>0.03000006735710286</v>
+        <v>0.130652181275918</v>
       </c>
       <c r="T4">
-        <v>0.03000006735710286</v>
+        <v>0.1306521812759179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.072366</v>
+      </c>
+      <c r="H5">
+        <v>0.217098</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.07533066666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.225992</v>
+      </c>
+      <c r="O5">
+        <v>0.0005714201840414873</v>
+      </c>
+      <c r="P5">
+        <v>0.0005714201840414872</v>
+      </c>
+      <c r="Q5">
+        <v>0.005451379024</v>
+      </c>
+      <c r="R5">
+        <v>0.049062411216</v>
+      </c>
+      <c r="S5">
+        <v>0.0005714201840414873</v>
+      </c>
+      <c r="T5">
+        <v>0.0005714201840414872</v>
       </c>
     </row>
   </sheetData>
